--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rf8dba90e118d4e1f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R1876480b05ac48d6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R1876480b05ac48d6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R7388bae62512475d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R7388bae62512475d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Re37dbeb586b24dac"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Re37dbeb586b24dac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Re3c90981222a4f71"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Re3c90981222a4f71"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rc470426367e04bda"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rc470426367e04bda"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R5185a4be52c244ae"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R5185a4be52c244ae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R12779b2af65044d9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R12779b2af65044d9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rd2e95ec7e41a4ade"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rd2e95ec7e41a4ade"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R61254b8438ad4dc3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R61254b8438ad4dc3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R891b5f7ed56b4b14"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R891b5f7ed56b4b14"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R5ba91cdbed114cb3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R5ba91cdbed114cb3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rb5fb8e5194e042ec"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/029_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rb5fb8e5194e042ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R3f00dc0b6a194e20"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
